--- a/Working code/log_rules.xlsx
+++ b/Working code/log_rules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
@@ -2727,6 +2727,1876 @@
       </c>
       <c r="AA26" t="n">
         <v>0.9732620320855615</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:54:19</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.743429918140209</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8.637021781043106</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>66.17482164216926</v>
+      </c>
+      <c r="G27" t="n">
+        <v>124.2504238786244</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>41.2311746142382</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.2575210494009972</v>
+      </c>
+      <c r="M27" t="n">
+        <v>31.28925977376568</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>292.2936292296011</v>
+      </c>
+      <c r="P27" t="n">
+        <v>838.4032448385647</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.7440580588834571</v>
+      </c>
+      <c r="S27" t="n">
+        <v>66.47210721240805</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.8775895929120665</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.493527783354963</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>41.00744387057409</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.7171428571428572</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:54:25</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.948900249695412</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.055417503002591</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>134.7694662508323</v>
+      </c>
+      <c r="G28" t="n">
+        <v>195.1366363960873</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10.36112806997891</v>
+      </c>
+      <c r="J28" t="n">
+        <v>122</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>40.75465482413328</v>
+      </c>
+      <c r="M28" t="n">
+        <v>71.60244452553069</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>415.2769933795056</v>
+      </c>
+      <c r="P28" t="n">
+        <v>516.0610531867994</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>12.83746033468058</v>
+      </c>
+      <c r="S28" t="n">
+        <v>46.76426131475303</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.774151613958896</v>
+      </c>
+      <c r="V28" t="n">
+        <v>2.133142672080803</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>37.28577233388732</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>48.59678885197707</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.6060606060606061</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:54:29</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>4.341803925681392</v>
+      </c>
+      <c r="D29" t="n">
+        <v>13.59389506768181</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>50.60529939799108</v>
+      </c>
+      <c r="G29" t="n">
+        <v>81.47934698686261</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>29.88171492701325</v>
+      </c>
+      <c r="J29" t="n">
+        <v>120.4975630516434</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5.378971261113159</v>
+      </c>
+      <c r="M29" t="n">
+        <v>98.5850758873853</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>31.79752389796906</v>
+      </c>
+      <c r="P29" t="n">
+        <v>417.6433112476879</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>45.71993544451258</v>
+      </c>
+      <c r="S29" t="n">
+        <v>52.59278339191715</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.1473093854070588</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.287430197535806</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>68.2378618667407</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>72.2092780803998</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:54:33</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9.974440289852076</v>
+      </c>
+      <c r="D30" t="n">
+        <v>13.59522933620396</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>120.7334035272815</v>
+      </c>
+      <c r="G30" t="n">
+        <v>149.7661944626153</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>32.39311759321146</v>
+      </c>
+      <c r="J30" t="n">
+        <v>43.85104098545282</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>49.47014383295812</v>
+      </c>
+      <c r="M30" t="n">
+        <v>78.0497999106741</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>684.1174759154177</v>
+      </c>
+      <c r="P30" t="n">
+        <v>688.1321155965263</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>11.27483372516271</v>
+      </c>
+      <c r="S30" t="n">
+        <v>22.94341012679555</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.4589095304300337</v>
+      </c>
+      <c r="V30" t="n">
+        <v>2.113563548415399</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>21.17019939183267</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>58.40327705580103</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:54:37</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.026684190809258</v>
+      </c>
+      <c r="D31" t="n">
+        <v>15.36250049170643</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>10.31465851041407</v>
+      </c>
+      <c r="G31" t="n">
+        <v>173.3435547568171</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>66.30336898157172</v>
+      </c>
+      <c r="J31" t="n">
+        <v>121.3011404812212</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>42.56439736172042</v>
+      </c>
+      <c r="M31" t="n">
+        <v>97.59554405907822</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>126.9144365563286</v>
+      </c>
+      <c r="P31" t="n">
+        <v>568.9737876545871</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>21.20899975112402</v>
+      </c>
+      <c r="S31" t="n">
+        <v>25.58789670535216</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.8146042712132902</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.983387988868933</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>25.50740100699311</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>27.57770316723413</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:54:41</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>3.487011697839505</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.376549855435469</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>69.57996827242076</v>
+      </c>
+      <c r="G32" t="n">
+        <v>199</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>44.09260363483774</v>
+      </c>
+      <c r="J32" t="n">
+        <v>95.37483668607018</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>19.08048342134484</v>
+      </c>
+      <c r="M32" t="n">
+        <v>97.38953456367439</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>409.5309809521507</v>
+      </c>
+      <c r="P32" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>23.74416061736542</v>
+      </c>
+      <c r="S32" t="n">
+        <v>36.91641379025067</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.611404977310415</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.027330205435202</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>32.01953788301043</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>73.78214486705161</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.9946524064171123</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:54:51</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>5.21905060474451</v>
+      </c>
+      <c r="D33" t="n">
+        <v>7.84630917881344</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>46.60558048331654</v>
+      </c>
+      <c r="G33" t="n">
+        <v>160.6998957998802</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.510721275979563</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>45.6377124516769</v>
+      </c>
+      <c r="M33" t="n">
+        <v>59.49784335123361</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>166.0884968928961</v>
+      </c>
+      <c r="P33" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>12.80573159849196</v>
+      </c>
+      <c r="S33" t="n">
+        <v>51.64063187600608</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.2146179672515472</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.631609300596498</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>29.36573083497456</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.9514285714285714</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:54:55</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>15.87640185818633</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>26.42229619902233</v>
+      </c>
+      <c r="G34" t="n">
+        <v>190.5597831631418</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>105.3468031483476</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8.432855089879663</v>
+      </c>
+      <c r="M34" t="n">
+        <v>99</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>592.5388352162291</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>15.82824922999989</v>
+      </c>
+      <c r="S34" t="n">
+        <v>41.29870174687808</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.6600950890669972</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.654853447649227</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>31.12460186761655</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>64.48404736373227</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:55:05</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>6.941452815120764</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9.387885247101242</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>61.2361477670155</v>
+      </c>
+      <c r="G35" t="n">
+        <v>129.7219050675506</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>68.43451137739765</v>
+      </c>
+      <c r="J35" t="n">
+        <v>86.01409058516099</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>27.15415046992041</v>
+      </c>
+      <c r="M35" t="n">
+        <v>62.68574803885884</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>9.321670778690637</v>
+      </c>
+      <c r="P35" t="n">
+        <v>222.4260168945171</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>35.67486335103875</v>
+      </c>
+      <c r="S35" t="n">
+        <v>58.28723809726704</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.355877278968264</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>55.32538600086521</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:55:10</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.325609686526827</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10.06963272041091</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>64.28275452861919</v>
+      </c>
+      <c r="G36" t="n">
+        <v>157.1242864549885</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.267320615813382</v>
+      </c>
+      <c r="J36" t="n">
+        <v>20.03114680310109</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>9.424061195652952</v>
+      </c>
+      <c r="M36" t="n">
+        <v>37.23066853766942</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>432.4954394906383</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>13.83842478834446</v>
+      </c>
+      <c r="S36" t="n">
+        <v>26.75405619104983</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.168586428163975</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>35.50930682008352</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.3246753246753247</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:55:14</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>4.160133933919416</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5.04451591681384</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>118.9735996686881</v>
+      </c>
+      <c r="G37" t="n">
+        <v>174.3734530664619</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>3.09805626857707</v>
+      </c>
+      <c r="J37" t="n">
+        <v>63.64667516691573</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>29.0604284327378</v>
+      </c>
+      <c r="M37" t="n">
+        <v>78.44799918808739</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>431.6021675251374</v>
+      </c>
+      <c r="P37" t="n">
+        <v>495.3458974760259</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>21.77195698786804</v>
+      </c>
+      <c r="S37" t="n">
+        <v>62.40538928248228</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.787382990668235</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.025900957403386</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>26.0324105018644</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>78.9391710423055</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:55:18</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>9.194344118271619</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.280531176526136</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>101.4104305564239</v>
+      </c>
+      <c r="G38" t="n">
+        <v>133.0422557502184</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>7.747701330627551</v>
+      </c>
+      <c r="J38" t="n">
+        <v>24.98924132647777</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>77.79861534013014</v>
+      </c>
+      <c r="M38" t="n">
+        <v>78.59990353038147</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>162.4721716637634</v>
+      </c>
+      <c r="P38" t="n">
+        <v>448.4144368517522</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.728988844394995</v>
+      </c>
+      <c r="S38" t="n">
+        <v>27.44887400360959</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.261189026932758</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>37.18765347371546</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>55.2357722801437</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:55:22</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.7366543689972316</v>
+      </c>
+      <c r="D39" t="n">
+        <v>9.747440934404777</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>44.65447469269587</v>
+      </c>
+      <c r="G39" t="n">
+        <v>180.0789812048386</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>32.11212991200672</v>
+      </c>
+      <c r="J39" t="n">
+        <v>90.67585926685918</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>7.468222882609019</v>
+      </c>
+      <c r="M39" t="n">
+        <v>63.39909324763369</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>51.05340491473268</v>
+      </c>
+      <c r="P39" t="n">
+        <v>668.8634499494337</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5.234033006903793</v>
+      </c>
+      <c r="S39" t="n">
+        <v>18.20639723803166</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.9443854605949523</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.645838508761168</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>24.22242900186482</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>65.93876176112386</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.8877005347593583</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:55:32</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.7149249163090653</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.410520071786389</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>53.063991452377</v>
+      </c>
+      <c r="G40" t="n">
+        <v>126.9701934753694</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>15.30570961001677</v>
+      </c>
+      <c r="J40" t="n">
+        <v>24.52894603401626</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>34.21996001712137</v>
+      </c>
+      <c r="M40" t="n">
+        <v>45.04787184774857</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>43.70849956867914</v>
+      </c>
+      <c r="P40" t="n">
+        <v>61.5571234833875</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>36.62939201237712</v>
+      </c>
+      <c r="S40" t="n">
+        <v>37.84793098535574</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.523014548959971</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.463919604605909</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>45.91080424828063</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7571428571428571</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:55:37</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>7.219907248607492</v>
+      </c>
+      <c r="D41" t="n">
+        <v>13.82515952602275</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>134.1216883158859</v>
+      </c>
+      <c r="G41" t="n">
+        <v>191.97652066981</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>27.30383998076631</v>
+      </c>
+      <c r="J41" t="n">
+        <v>77.66152588691698</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>62.19451601630117</v>
+      </c>
+      <c r="M41" t="n">
+        <v>80.49018046825989</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>332.8613998063567</v>
+      </c>
+      <c r="P41" t="n">
+        <v>734.6464470320121</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.762945584872106</v>
+      </c>
+      <c r="S41" t="n">
+        <v>43.49285802952431</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.076733712829945</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.458060393503846</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>39.57137050003158</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>71.25519233720902</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.6823529411764706</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:55:41</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7.583950433115477</v>
+      </c>
+      <c r="D42" t="n">
+        <v>17</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>66.71294674950643</v>
+      </c>
+      <c r="G42" t="n">
+        <v>199</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>65.42169822252058</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>65.20773595259031</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>396.2797408373012</v>
+      </c>
+      <c r="P42" t="n">
+        <v>719.4368361134902</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>39.39053936268719</v>
+      </c>
+      <c r="S42" t="n">
+        <v>40.88869011653867</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.5285227043950202</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.324053468456558</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>71.34919566630451</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.9946524064171123</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:55:52</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.030110917256372</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>28.65557713423238</v>
+      </c>
+      <c r="G43" t="n">
+        <v>139.87033564514</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>8.760969063289334</v>
+      </c>
+      <c r="J43" t="n">
+        <v>12.55178417692877</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>52.46790413601436</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>152.6819903387644</v>
+      </c>
+      <c r="P43" t="n">
+        <v>631.6784975966949</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>8.707614913483352</v>
+      </c>
+      <c r="S43" t="n">
+        <v>15.94918558091675</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.1385524959850054</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.9267400445510802</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>49.14611745302993</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:55:56</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3864028775945527</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.802741738079099</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>19.50189421302144</v>
+      </c>
+      <c r="G44" t="n">
+        <v>182.5521856608192</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>96.69944202635043</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>39.43989588320747</v>
+      </c>
+      <c r="M44" t="n">
+        <v>61.0990001199263</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>168.014695564659</v>
+      </c>
+      <c r="P44" t="n">
+        <v>353.7331149204643</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>10.54315409608144</v>
+      </c>
+      <c r="S44" t="n">
+        <v>22.13808094145201</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.1352653325558677</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.9872972750376302</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>50.42658069023128</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>76.56706932403934</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:56:00</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>5.340774546907011</v>
+      </c>
+      <c r="D45" t="n">
+        <v>16.76538086413543</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>118.302351868955</v>
+      </c>
+      <c r="G45" t="n">
+        <v>156.8089626611131</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>62.33488207839023</v>
+      </c>
+      <c r="J45" t="n">
+        <v>109.1188537506077</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>36.39924671338333</v>
+      </c>
+      <c r="M45" t="n">
+        <v>44.78404804223365</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>508.5816456286065</v>
+      </c>
+      <c r="P45" t="n">
+        <v>521.4595535179243</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.04617034366956681</v>
+      </c>
+      <c r="S45" t="n">
+        <v>58.71188234148086</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.5545874046015837</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.091392360736724</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>48.19678327720726</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>60.7479820336619</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:56:04</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>6.336494988953309</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6.374787980745568</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.729421635250211</v>
+      </c>
+      <c r="G46" t="n">
+        <v>55.79814998455853</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>34.78905856516119</v>
+      </c>
+      <c r="J46" t="n">
+        <v>56.34092334645114</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>29.01651504323774</v>
+      </c>
+      <c r="M46" t="n">
+        <v>66.23720353763525</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>191.6775496786241</v>
+      </c>
+      <c r="P46" t="n">
+        <v>446.4908480794589</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>8.674749649827167</v>
+      </c>
+      <c r="S46" t="n">
+        <v>30.67989012259368</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0.7868230763140235</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.656524375154506</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>23.97321127327056</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>49.39649697208485</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:56:08</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.4390658614535377</v>
+      </c>
+      <c r="D47" t="n">
+        <v>14.75005843180148</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>61.4206456050815</v>
+      </c>
+      <c r="G47" t="n">
+        <v>70.78458518175479</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>7.751008237208184</v>
+      </c>
+      <c r="J47" t="n">
+        <v>97.10078369450919</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>36.86920425754806</v>
+      </c>
+      <c r="M47" t="n">
+        <v>43.65554405288258</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>37.73142930594828</v>
+      </c>
+      <c r="P47" t="n">
+        <v>554.6451253821497</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.8367127467264656</v>
+      </c>
+      <c r="S47" t="n">
+        <v>34.80212890024066</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.4764106422106609</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.132091806174448</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>37.71271029367955</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>61.26639402659218</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.4054054054054054</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:56:12</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.869003746717926</v>
+      </c>
+      <c r="D48" t="n">
+        <v>5.76751494624896</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>99.37473546533307</v>
+      </c>
+      <c r="G48" t="n">
+        <v>103.0763383611275</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.2077739493758524</v>
+      </c>
+      <c r="J48" t="n">
+        <v>21.39290124718731</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>76.21664439976519</v>
+      </c>
+      <c r="M48" t="n">
+        <v>97.5845111063677</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>367.8749466643218</v>
+      </c>
+      <c r="P48" t="n">
+        <v>420.704059424517</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>20.11820753571112</v>
+      </c>
+      <c r="S48" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.763326774001804</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.050848966048714</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>62.33651403497668</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.9839572192513369</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/log_rules.xlsx
+++ b/Working code/log_rules.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA48"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
       <selection activeCell="AA17" sqref="AA17"/>
@@ -4597,6 +4597,3151 @@
       </c>
       <c r="AA48" t="n">
         <v>0.9839572192513369</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:27:27</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>5.118258993749345</v>
+      </c>
+      <c r="D49" t="n">
+        <v>6.191320177286219</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>16.94590521085755</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.383062631433395</v>
+      </c>
+      <c r="J49" t="n">
+        <v>31.73730375429575</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.09690639393311828</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>610.1751333025692</v>
+      </c>
+      <c r="P49" t="n">
+        <v>639.7378500922928</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.374570970277519</v>
+      </c>
+      <c r="S49" t="n">
+        <v>26.34022553002171</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.8031104817993592</v>
+      </c>
+      <c r="V49" t="n">
+        <v>1.273501054713586</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>77.00986056803039</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:27:37</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>5.833030008275725</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10.96724960891234</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>92.89984505856224</v>
+      </c>
+      <c r="G50" t="n">
+        <v>121.2422240990141</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.204577642031598</v>
+      </c>
+      <c r="J50" t="n">
+        <v>103.6552255698398</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>42.29025151501741</v>
+      </c>
+      <c r="M50" t="n">
+        <v>45.81846388728891</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>368.0618203741123</v>
+      </c>
+      <c r="P50" t="n">
+        <v>834.5264399627918</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>29.53463149442143</v>
+      </c>
+      <c r="S50" t="n">
+        <v>66.55368722302748</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.8891851155155631</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.159630610542795</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>36.48292097232084</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>68.96348765197828</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.4371428571428572</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:27:44</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4.616753501060384</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4.899221492567023</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" t="n">
+        <v>72.2736017096192</v>
+      </c>
+      <c r="G51" t="n">
+        <v>123.9476054005723</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>65.59445972361057</v>
+      </c>
+      <c r="J51" t="n">
+        <v>79.62805491943695</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>35.39471214461421</v>
+      </c>
+      <c r="M51" t="n">
+        <v>38.27975340338919</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>158.301677310246</v>
+      </c>
+      <c r="P51" t="n">
+        <v>283.7605176024494</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>25.01622416273909</v>
+      </c>
+      <c r="S51" t="n">
+        <v>30.49530908316477</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.8024794986380709</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.9466374540251495</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>56.55498797409034</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>69.00041193890979</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0.4263959390862944</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:27:49</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.4285350504698174</v>
+      </c>
+      <c r="D52" t="n">
+        <v>7.710667398792624</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>35.99743656074828</v>
+      </c>
+      <c r="G52" t="n">
+        <v>111.1755764426888</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>10.39832486905863</v>
+      </c>
+      <c r="J52" t="n">
+        <v>62.93306590672415</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>24.64474353843091</v>
+      </c>
+      <c r="M52" t="n">
+        <v>80.72324518391936</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>303.6009129753152</v>
+      </c>
+      <c r="P52" t="n">
+        <v>811.8619244566584</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>35.91531484657811</v>
+      </c>
+      <c r="S52" t="n">
+        <v>47.35044611521635</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.9390538767694326</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.263093110675335</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>25.50455703540687</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>66.29549639910164</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.1061946902654867</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:27:55</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>6.013987121415302</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13.32750606745406</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>33.02748852258564</v>
+      </c>
+      <c r="G53" t="n">
+        <v>134.1218983172004</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>71.40735390541926</v>
+      </c>
+      <c r="J53" t="n">
+        <v>107.4496314604975</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.619340477407722</v>
+      </c>
+      <c r="M53" t="n">
+        <v>55.45843375211508</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>139.7502075844327</v>
+      </c>
+      <c r="P53" t="n">
+        <v>168.4632156227513</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>16.92032432622472</v>
+      </c>
+      <c r="S53" t="n">
+        <v>24.96548838812115</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.4294916108586963</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>44.8484056336276</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>52.72564415406823</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0.6534653465346535</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:27:59</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14.04699870713062</v>
+      </c>
+      <c r="D54" t="n">
+        <v>15.0646846666105</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>40.46052785302619</v>
+      </c>
+      <c r="G54" t="n">
+        <v>65.95594099135468</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>60.70625772835197</v>
+      </c>
+      <c r="J54" t="n">
+        <v>75.19187551643537</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>42.8824574531916</v>
+      </c>
+      <c r="M54" t="n">
+        <v>63.21378780293881</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4.492728693417396</v>
+      </c>
+      <c r="P54" t="n">
+        <v>114.918046362895</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>40.94077096331741</v>
+      </c>
+      <c r="S54" t="n">
+        <v>49.64451015839077</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0.1943818242082556</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.71470494055447</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>21.82570906599979</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>56.89440840874157</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.05714285714285714</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:28:03</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>13.24825252149812</v>
+      </c>
+      <c r="D55" t="n">
+        <v>15.90107755971192</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>43.64804318217417</v>
+      </c>
+      <c r="G55" t="n">
+        <v>108.6251898536109</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>25.54932868295816</v>
+      </c>
+      <c r="J55" t="n">
+        <v>89.60385769355567</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>8.409262911955967</v>
+      </c>
+      <c r="M55" t="n">
+        <v>75.71513778420359</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>187.8616629300284</v>
+      </c>
+      <c r="P55" t="n">
+        <v>760.1467449999913</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>15.35799490824735</v>
+      </c>
+      <c r="S55" t="n">
+        <v>30.55341074757028</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.8270541481994096</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.132078077198675</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>62.52131618816141</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>70.85291185589405</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.5151515151515151</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:28:07</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.9657396513658099</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.962516073840501</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>13.65946683877036</v>
+      </c>
+      <c r="G56" t="n">
+        <v>57.80673260736535</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>29.90715292411568</v>
+      </c>
+      <c r="J56" t="n">
+        <v>48.23172052543955</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>15.58955115493801</v>
+      </c>
+      <c r="M56" t="n">
+        <v>63.4442349047754</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>662.6778288588098</v>
+      </c>
+      <c r="P56" t="n">
+        <v>746.4086522200175</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>18.63194864636845</v>
+      </c>
+      <c r="S56" t="n">
+        <v>54.12689493046697</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.398418785656317</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1</v>
+      </c>
+      <c r="X56" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>58.96480006818592</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.9572192513368984</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:28:33</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.580040160829376</v>
+      </c>
+      <c r="D57" t="n">
+        <v>17</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>34.69717707700867</v>
+      </c>
+      <c r="G57" t="n">
+        <v>130.3013023022025</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>9.193727844021009</v>
+      </c>
+      <c r="J57" t="n">
+        <v>15.87462615526342</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>13.20801892056858</v>
+      </c>
+      <c r="M57" t="n">
+        <v>45.9099466675093</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>229.7415753988952</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>13.365310699383</v>
+      </c>
+      <c r="S57" t="n">
+        <v>52.72335345885467</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.7166263507562404</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.127785148488921</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>28.03431600312075</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.8028571428571428</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:28:38</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>8.168603989791112</v>
+      </c>
+      <c r="D58" t="n">
+        <v>8.323194051273084</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>60.20590921504684</v>
+      </c>
+      <c r="G58" t="n">
+        <v>81.21625271883775</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>49.82502137478391</v>
+      </c>
+      <c r="J58" t="n">
+        <v>82.485971958131</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>35.10505136517039</v>
+      </c>
+      <c r="M58" t="n">
+        <v>69.81555796865246</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>341.8508318625269</v>
+      </c>
+      <c r="P58" t="n">
+        <v>840.1698179414058</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>56.02847387366543</v>
+      </c>
+      <c r="S58" t="n">
+        <v>65.60560600796363</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.660305442836463</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.031753524038312</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>31.43555614531293</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>51.60339652269274</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.1304347826086956</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:28:42</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3.576997979077778</v>
+      </c>
+      <c r="D59" t="n">
+        <v>12.94563780303734</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>29.19059217494314</v>
+      </c>
+      <c r="G59" t="n">
+        <v>103.6487199167284</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>54.86295231185304</v>
+      </c>
+      <c r="J59" t="n">
+        <v>103.0396229657005</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>5.153036656194603</v>
+      </c>
+      <c r="M59" t="n">
+        <v>44.74653319346389</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>105.1461732094563</v>
+      </c>
+      <c r="P59" t="n">
+        <v>129.7949981905294</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>12.55356481923466</v>
+      </c>
+      <c r="S59" t="n">
+        <v>49.25563065928067</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.654220098279759</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.984251164829288</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>31.70080754286678</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>46.57812560484798</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.4833333333333333</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:28:46</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4.045184228234872</v>
+      </c>
+      <c r="D60" t="n">
+        <v>15.49794720097406</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>22.85201755182468</v>
+      </c>
+      <c r="G60" t="n">
+        <v>121.9846129011299</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>41.23639428004526</v>
+      </c>
+      <c r="J60" t="n">
+        <v>106.8576232069749</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.715279721346793</v>
+      </c>
+      <c r="M60" t="n">
+        <v>77.47356000647896</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>253.4592196702061</v>
+      </c>
+      <c r="P60" t="n">
+        <v>466.1754329874111</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>23.88416661173409</v>
+      </c>
+      <c r="S60" t="n">
+        <v>29.68030822874968</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.958074632291242</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.369735478088641</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1</v>
+      </c>
+      <c r="X60" t="n">
+        <v>26.6129248849471</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>34.56127003101899</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.2258064516129032</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:28:50</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>17</v>
+      </c>
+      <c r="D61" t="n">
+        <v>17</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>74.8467867237672</v>
+      </c>
+      <c r="G61" t="n">
+        <v>165.7629316385547</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>97.26980145291259</v>
+      </c>
+      <c r="J61" t="n">
+        <v>105.6111196566736</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>9.588025673899097</v>
+      </c>
+      <c r="M61" t="n">
+        <v>58.15069606376638</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>242.186349859062</v>
+      </c>
+      <c r="P61" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>12.33125974441756</v>
+      </c>
+      <c r="S61" t="n">
+        <v>22.29543442738095</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.9406224493820275</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.224554269845521</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" t="n">
+        <v>25.44093250429783</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>63.91378668352571</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:28:52</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11.26881472372265</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>71.80955222115961</v>
+      </c>
+      <c r="G62" t="n">
+        <v>199</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>106.2704690684838</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>17.32170162672719</v>
+      </c>
+      <c r="M62" t="n">
+        <v>35.2951952364472</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>11.06337884415098</v>
+      </c>
+      <c r="P62" t="n">
+        <v>333.3567849990875</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>9.441209096100009</v>
+      </c>
+      <c r="S62" t="n">
+        <v>56.23952864127384</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.4464879953630768</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.499627954721356</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1</v>
+      </c>
+      <c r="X62" t="n">
+        <v>21.27079932361143</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>30.78872268727106</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.8484848484848485</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:29:03</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.977021675507828</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.180490529237133</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>48.10378884665388</v>
+      </c>
+      <c r="G63" t="n">
+        <v>113.0861908975074</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>61.27378685734732</v>
+      </c>
+      <c r="J63" t="n">
+        <v>85.058002842314</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>32.28027558604409</v>
+      </c>
+      <c r="M63" t="n">
+        <v>42.14470278885926</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>312.767701857937</v>
+      </c>
+      <c r="P63" t="n">
+        <v>811.0790198697109</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>46.92873450401649</v>
+      </c>
+      <c r="S63" t="n">
+        <v>64.7927889225261</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.2333865633720818</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.391327410434092</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>33.43433486238705</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>47.43191910315887</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.5914285714285714</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:29:09</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.8572993438259681</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.605970463269271</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>99.11744143566365</v>
+      </c>
+      <c r="G64" t="n">
+        <v>107.8545202368124</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>25.31434274852138</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>16.02460362991516</v>
+      </c>
+      <c r="M64" t="n">
+        <v>56.86737433125204</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>103.038335492589</v>
+      </c>
+      <c r="P64" t="n">
+        <v>207.8873570140977</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3.131532782338986</v>
+      </c>
+      <c r="S64" t="n">
+        <v>12.72266930710208</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0.1045655792477144</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.7173894747136731</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>29.29426088983336</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>61.82321024028914</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.3986013986013986</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:29:14</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.08270390506178549</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.518801736002699</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>76.02367161732388</v>
+      </c>
+      <c r="G65" t="n">
+        <v>159.4661466561994</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.376200810758731</v>
+      </c>
+      <c r="J65" t="n">
+        <v>97.66023425588681</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>36.59223590877774</v>
+      </c>
+      <c r="M65" t="n">
+        <v>59.41135829234319</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>54.89030697995577</v>
+      </c>
+      <c r="P65" t="n">
+        <v>197.1199095975774</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>14.10111744130278</v>
+      </c>
+      <c r="S65" t="n">
+        <v>29.45055086183633</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.6827995837965506</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.50655459393784</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0</v>
+      </c>
+      <c r="X65" t="n">
+        <v>49.87025168457922</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>63.70860682694936</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0.3604651162790697</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:29:19</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>10.18320292946514</v>
+      </c>
+      <c r="D66" t="n">
+        <v>13.97879562277713</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>78.4577664671117</v>
+      </c>
+      <c r="G66" t="n">
+        <v>100.1575666115365</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>17.57703572432069</v>
+      </c>
+      <c r="J66" t="n">
+        <v>37.41417379835178</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>32.97202802417398</v>
+      </c>
+      <c r="M66" t="n">
+        <v>84.43769548048057</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>484.6852031766902</v>
+      </c>
+      <c r="P66" t="n">
+        <v>747.2153893177117</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>36.32869671306927</v>
+      </c>
+      <c r="S66" t="n">
+        <v>41.51576337646376</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>2.061980301912876</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2.378683513640693</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>31.68493171459317</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>64.33773326512201</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0.2181818181818182</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:29:23</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>12.18911256315718</v>
+      </c>
+      <c r="D67" t="n">
+        <v>12.56370752451011</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>64.18155687774842</v>
+      </c>
+      <c r="G67" t="n">
+        <v>155.2334770897051</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>86.37440663654398</v>
+      </c>
+      <c r="J67" t="n">
+        <v>100.4950786141266</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>18.52677740222663</v>
+      </c>
+      <c r="M67" t="n">
+        <v>72.88420428615115</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="n">
+        <v>80.18707908928755</v>
+      </c>
+      <c r="P67" t="n">
+        <v>718.4996385888627</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>39.88276864182193</v>
+      </c>
+      <c r="S67" t="n">
+        <v>39.92302155018452</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.1635805903255012</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.031060018833795</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>49.94707139813975</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>64.21222304827299</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0.4186046511627907</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:29:27</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.4650634495590988</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12.05600916741424</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>117.8069019296034</v>
+      </c>
+      <c r="G68" t="n">
+        <v>148.2040794187026</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.011828867851929</v>
+      </c>
+      <c r="J68" t="n">
+        <v>51.97073642109979</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>33.45999931697406</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>165.4785756208234</v>
+      </c>
+      <c r="P68" t="n">
+        <v>181.2944525348084</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1.167547979597024</v>
+      </c>
+      <c r="S68" t="n">
+        <v>48.48511731719874</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0.8399082980178888</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.271557123207434</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>42.07703161027506</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>65.52085539727511</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0.9572192513368984</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:29:38</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>6.016450961501897</v>
+      </c>
+      <c r="D69" t="n">
+        <v>9.232622676934197</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.666142620373542</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>43.55755799198261</v>
+      </c>
+      <c r="J69" t="n">
+        <v>47.80374331676273</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>27.55854607948509</v>
+      </c>
+      <c r="M69" t="n">
+        <v>98.3803378049803</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>345.7814293872585</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.288037362462823</v>
+      </c>
+      <c r="S69" t="n">
+        <v>12.63069051470248</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.494575818591284</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1.987090225877189</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1</v>
+      </c>
+      <c r="X69" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>33.68535110529339</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0.6971428571428572</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:29:44</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>14.69059706384607</v>
+      </c>
+      <c r="D70" t="n">
+        <v>17</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>39.33930512176282</v>
+      </c>
+      <c r="G70" t="n">
+        <v>96.84170649195129</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>70.27276362372484</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>32.9316778930777</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>593.1483021275235</v>
+      </c>
+      <c r="P70" t="n">
+        <v>690.9977706233507</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>29.10183145075506</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0.5728539300945139</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.405214946527699</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>42.16535672231111</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>70.14879880261878</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0.3490566037735849</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:29:48</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.066274267369005</v>
+      </c>
+      <c r="D71" t="n">
+        <v>6.006358375015812</v>
+      </c>
+      <c r="E71" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" t="n">
+        <v>46.78485401340318</v>
+      </c>
+      <c r="G71" t="n">
+        <v>118.5609742141802</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>19.03960026932042</v>
+      </c>
+      <c r="J71" t="n">
+        <v>26.87631394534318</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>19.4802967877962</v>
+      </c>
+      <c r="M71" t="n">
+        <v>26.17299832112661</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>178.4884322730391</v>
+      </c>
+      <c r="P71" t="n">
+        <v>553.1451283003796</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>9.429152944927923</v>
+      </c>
+      <c r="S71" t="n">
+        <v>28.62646725056932</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.7276079543739373</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1.727795109709405</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>39.63005962390184</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>68.86171954749679</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0.5072463768115942</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:29:53</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.260477565448774</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.7349720726296044</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>149.7613433713828</v>
+      </c>
+      <c r="G72" t="n">
+        <v>171.1286101910072</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>12.6671054202934</v>
+      </c>
+      <c r="J72" t="n">
+        <v>20.81211203122208</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>58.28019664865086</v>
+      </c>
+      <c r="M72" t="n">
+        <v>90.57369024709834</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>439.0228365346167</v>
+      </c>
+      <c r="P72" t="n">
+        <v>721.0532989039268</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>33.79537895969743</v>
+      </c>
+      <c r="S72" t="n">
+        <v>58.14311702427618</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0.5113653450625734</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.104012942591628</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>33.54353046645252</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>78.71698830329882</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:29:57</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>7.847329308817628</v>
+      </c>
+      <c r="D73" t="n">
+        <v>9.137876414324223</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>141.9222003094717</v>
+      </c>
+      <c r="G73" t="n">
+        <v>167.2610212948571</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>30.64037462847979</v>
+      </c>
+      <c r="J73" t="n">
+        <v>121.9003899165897</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>6.745761192326075</v>
+      </c>
+      <c r="M73" t="n">
+        <v>77.71018369251273</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>347.2427910285715</v>
+      </c>
+      <c r="P73" t="n">
+        <v>712.6849828820574</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>56.96145156916644</v>
+      </c>
+      <c r="S73" t="n">
+        <v>59.25825596543918</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.028369470243051</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.295262545565964</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1</v>
+      </c>
+      <c r="X73" t="n">
+        <v>26.18614940622264</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>65.71316787421608</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0.3823529411764706</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:30:01</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>5.362726573776768</v>
+      </c>
+      <c r="D74" t="n">
+        <v>12.46447043185593</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>129.7709821179253</v>
+      </c>
+      <c r="G74" t="n">
+        <v>143.4912494222548</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>59.16009861720485</v>
+      </c>
+      <c r="J74" t="n">
+        <v>94.22848344298021</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>39.81476397630301</v>
+      </c>
+      <c r="M74" t="n">
+        <v>63.98374174038518</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>383.8929159308047</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>13.8264704617601</v>
+      </c>
+      <c r="S74" t="n">
+        <v>53.26413993402868</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.188600141723853</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.932078285231948</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>51.21043755638129</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0.9518716577540107</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:30:12</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>7.453667672115623</v>
+      </c>
+      <c r="D75" t="n">
+        <v>15.3149087553288</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>28.62110157133115</v>
+      </c>
+      <c r="G75" t="n">
+        <v>142.5525207423343</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>49.07326688270779</v>
+      </c>
+      <c r="J75" t="n">
+        <v>77.87340751201762</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>14.74923260262726</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>40.97685450571797</v>
+      </c>
+      <c r="P75" t="n">
+        <v>670.7306602286029</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>14.8731291110605</v>
+      </c>
+      <c r="S75" t="n">
+        <v>15.15820669514751</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0.3880171779289057</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.459980568315268</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>51.99590092571563</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0.8771428571428571</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:30:16</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>11.54743817799487</v>
+      </c>
+      <c r="D76" t="n">
+        <v>12.24434383268649</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>34.25605685668162</v>
+      </c>
+      <c r="G76" t="n">
+        <v>167.5452483984152</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>50.41623310660173</v>
+      </c>
+      <c r="J76" t="n">
+        <v>52.71520622078371</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>42.655661251122</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="n">
+        <v>287.8786334405339</v>
+      </c>
+      <c r="P76" t="n">
+        <v>409.490632324347</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>8.077266430207095</v>
+      </c>
+      <c r="S76" t="n">
+        <v>62.33122044296022</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.850920269046298</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.162553582389194</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>38.38528093806038</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>64.33172897189429</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0.09302325581395349</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:30:21</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>6.027160353699378</v>
+      </c>
+      <c r="D77" t="n">
+        <v>6.597984097239222</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>19.11532613188051</v>
+      </c>
+      <c r="G77" t="n">
+        <v>103.3621833747568</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.2327599534098117</v>
+      </c>
+      <c r="J77" t="n">
+        <v>115.3262859848387</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>50.12212993611784</v>
+      </c>
+      <c r="M77" t="n">
+        <v>57.32075085646821</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>262.2121170980195</v>
+      </c>
+      <c r="P77" t="n">
+        <v>552.6007638575504</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>45.70722545449578</v>
+      </c>
+      <c r="S77" t="n">
+        <v>56.82102235446549</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.5050478994757287</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.7423256945304123</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1</v>
+      </c>
+      <c r="X77" t="n">
+        <v>22.59457124219877</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>24.56529496265617</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0.02564102564102564</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:30:25</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.093620827339802</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3.766212546234537</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>181.2604505936042</v>
+      </c>
+      <c r="G78" t="n">
+        <v>198.6681414964772</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>42.39033988500426</v>
+      </c>
+      <c r="J78" t="n">
+        <v>117.0978347871639</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>48.05860256177779</v>
+      </c>
+      <c r="M78" t="n">
+        <v>68.00640663377324</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" t="n">
+        <v>252.0315476746733</v>
+      </c>
+      <c r="P78" t="n">
+        <v>780.2154747066527</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>10.43407912498563</v>
+      </c>
+      <c r="S78" t="n">
+        <v>49.98598378243732</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.5857227121275523</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.435542594719474</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>47.69661793396745</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>56.75951476361649</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:30:29</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>10.55511166725381</v>
+      </c>
+      <c r="D79" t="n">
+        <v>12.63577466449064</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>40.85535496205719</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>92.94147975007709</v>
+      </c>
+      <c r="J79" t="n">
+        <v>118.092678907692</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>14.09293730867879</v>
+      </c>
+      <c r="M79" t="n">
+        <v>24.55951433955249</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>96.39454843212687</v>
+      </c>
+      <c r="P79" t="n">
+        <v>227.7367074380984</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>25.66910825862904</v>
+      </c>
+      <c r="S79" t="n">
+        <v>26.1939158304198</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1.316302205631044</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2.041607519671877</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>63.73545702641693</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>69.24785324032797</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:30:34</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.661461981102649</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10.4446296947099</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>5.016318566674796</v>
+      </c>
+      <c r="G80" t="n">
+        <v>198.3470026800294</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>38.80002110826931</v>
+      </c>
+      <c r="J80" t="n">
+        <v>52.27144599308504</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.989643213450933</v>
+      </c>
+      <c r="M80" t="n">
+        <v>24.90309739239976</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>326.0013029275358</v>
+      </c>
+      <c r="P80" t="n">
+        <v>575.5322543734636</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>22.85998050332229</v>
+      </c>
+      <c r="S80" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.797801300913687</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.067016783134952</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>33.54218006227926</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0.9946524064171123</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:30:45</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.377653616568121</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4.178034732449062</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>36.31236988189945</v>
+      </c>
+      <c r="G81" t="n">
+        <v>133.7155740004215</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>5.250132010038901</v>
+      </c>
+      <c r="J81" t="n">
+        <v>42.71687756131766</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.9723461905666941</v>
+      </c>
+      <c r="M81" t="n">
+        <v>33.0999313333332</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>71.61119841608429</v>
+      </c>
+      <c r="P81" t="n">
+        <v>478.5337206485493</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>59.10449235950816</v>
+      </c>
+      <c r="S81" t="n">
+        <v>63.57563372770015</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0.2573197749342899</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.4810495916863217</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>42.6588843269292</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>74.10157283179706</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0.8171428571428572</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:30:50</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3.905273562211952</v>
+      </c>
+      <c r="D82" t="n">
+        <v>5.316834273063769</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>92.56539581301188</v>
+      </c>
+      <c r="G82" t="n">
+        <v>193.0196842712393</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>40.76137233349521</v>
+      </c>
+      <c r="J82" t="n">
+        <v>106.039026630286</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>20.06901202147661</v>
+      </c>
+      <c r="M82" t="n">
+        <v>91.93032737167661</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>412.2204752080827</v>
+      </c>
+      <c r="P82" t="n">
+        <v>534.6901365306954</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>32.98109911773499</v>
+      </c>
+      <c r="S82" t="n">
+        <v>47.39151011433486</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1.125028222948214</v>
+      </c>
+      <c r="V82" t="n">
+        <v>1.402496062348076</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>66.73026363401232</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>74.94864451560255</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:30:54</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.007615978773622634</v>
+      </c>
+      <c r="D83" t="n">
+        <v>12.41283272422482</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>132.4489633189615</v>
+      </c>
+      <c r="G83" t="n">
+        <v>151.314575419355</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>59.85442525331391</v>
+      </c>
+      <c r="J83" t="n">
+        <v>71.21276398832858</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>65.0011869863996</v>
+      </c>
+      <c r="M83" t="n">
+        <v>67.92276768788794</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>329.4156086760314</v>
+      </c>
+      <c r="P83" t="n">
+        <v>821.5764737352645</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>17.02629541290662</v>
+      </c>
+      <c r="S83" t="n">
+        <v>41.34023022507147</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0.4136996051006794</v>
+      </c>
+      <c r="V83" t="n">
+        <v>1.604888304727637</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>28.82458288954421</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>64.27766251224793</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:30:58</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>3.184911016942</v>
+      </c>
+      <c r="D84" t="n">
+        <v>15.5409185608966</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>36.24873397275251</v>
+      </c>
+      <c r="G84" t="n">
+        <v>171.7221374134373</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>25.95525774887838</v>
+      </c>
+      <c r="J84" t="n">
+        <v>114.9762359614675</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>39.4740824022939</v>
+      </c>
+      <c r="M84" t="n">
+        <v>39.56547765892075</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>664.0514761013168</v>
+      </c>
+      <c r="P84" t="n">
+        <v>719.6650557265702</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>10.22318128114064</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.9605342557083588</v>
+      </c>
+      <c r="V84" t="n">
+        <v>1.708694819331541</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1</v>
+      </c>
+      <c r="X84" t="n">
+        <v>26.42623868734038</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>64.27438918736733</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0.7914438502673797</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:31:00</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>8.42944318856166</v>
+      </c>
+      <c r="D85" t="n">
+        <v>9.590012415951438</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>107.2062427050812</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>30.98518048031982</v>
+      </c>
+      <c r="J85" t="n">
+        <v>36.56143319575245</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>31.87732602837089</v>
+      </c>
+      <c r="M85" t="n">
+        <v>47.63838050864982</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>442.2494022614248</v>
+      </c>
+      <c r="P85" t="n">
+        <v>511.5358733897971</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>28.04838807870606</v>
+      </c>
+      <c r="S85" t="n">
+        <v>44.1660958623354</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.472914720117258</v>
+      </c>
+      <c r="V85" t="n">
+        <v>1.911540011228734</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>26.76279765076762</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>68.67779354671022</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0.7948717948717948</v>
       </c>
     </row>
   </sheetData>
